--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-organization.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$250</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8084" uniqueCount="913">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:24:05+00:00</t>
+    <t>2024-04-10T09:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2436,25 +2436,6 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>JDV_J103-TypeVoie-RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
-  </si>
-  <si>
     <t>Organization.address.line.extension:postalBox</t>
   </si>
   <si>
@@ -2500,7 +2481,7 @@
     <t>lieuDit (Adresse)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour indiquer le lieu dit</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Organization.address.line.value</t>
@@ -3230,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ251"/>
+  <dimension ref="A1:AJ250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -24496,7 +24477,7 @@
         <v>73</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>72</v>
@@ -24697,7 +24678,7 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>80</v>
@@ -24712,7 +24693,7 @@
         <v>72</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>701</v>
+        <v>95</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>661</v>
@@ -24755,14 +24736,16 @@
         <v>72</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AC210" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>769</v>
+        <v>72</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>664</v>
@@ -24782,13 +24765,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>766</v>
+        <v>732</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>72</v>
@@ -24801,7 +24784,7 @@
         <v>80</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>72</v>
@@ -24810,13 +24793,13 @@
         <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>95</v>
+        <v>770</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>661</v>
+        <v>771</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>662</v>
+        <v>772</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -24843,13 +24826,13 @@
         <v>72</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>772</v>
+        <v>72</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>773</v>
+        <v>72</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>72</v>
@@ -24867,30 +24850,30 @@
         <v>72</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>664</v>
+        <v>108</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>732</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>72</v>
@@ -24912,13 +24895,13 @@
         <v>72</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="L212" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24986,13 +24969,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>732</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>72</v>
@@ -25014,13 +24997,13 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -25088,14 +25071,12 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C214" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
         <v>72</v>
       </c>
@@ -25107,7 +25088,7 @@
         <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>72</v>
@@ -25116,13 +25097,13 @@
         <v>72</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>786</v>
+        <v>95</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>787</v>
+        <v>566</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>788</v>
+        <v>566</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -25146,7 +25127,7 @@
         <v>72</v>
       </c>
       <c r="W214" t="s" s="2">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="X214" t="s" s="2">
         <v>72</v>
@@ -25173,31 +25154,31 @@
         <v>72</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>72</v>
+        <v>785</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -25207,24 +25188,26 @@
         <v>80</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K215" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>566</v>
+        <v>786</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>72</v>
@@ -25237,7 +25220,7 @@
         <v>72</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>72</v>
+        <v>788</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>72</v>
@@ -25246,7 +25229,7 @@
         <v>72</v>
       </c>
       <c r="W215" t="s" s="2">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="X215" t="s" s="2">
         <v>72</v>
@@ -25273,7 +25256,7 @@
         <v>72</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>568</v>
+        <v>789</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
@@ -25282,10 +25265,10 @@
         <v>80</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" hidden="true">
@@ -25307,7 +25290,7 @@
         <v>80</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>72</v>
@@ -25325,7 +25308,7 @@
         <v>793</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>476</v>
+        <v>794</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25339,7 +25322,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25375,7 +25358,7 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
@@ -25392,14 +25375,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25421,13 +25404,13 @@
         <v>95</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>800</v>
+        <v>476</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -25441,43 +25424,43 @@
         <v>72</v>
       </c>
       <c r="T217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF217" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
@@ -25494,14 +25477,14 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25511,7 +25494,7 @@
         <v>80</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>72</v>
@@ -25523,10 +25506,10 @@
         <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M218" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>476</v>
@@ -25543,7 +25526,7 @@
         <v>72</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>72</v>
+        <v>806</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>72</v>
@@ -25603,7 +25586,7 @@
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>809</v>
+        <v>72</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
@@ -25613,7 +25596,7 @@
         <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>72</v>
@@ -25625,13 +25608,13 @@
         <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -25645,43 +25628,43 @@
         <v>72</v>
       </c>
       <c r="T219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF219" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
@@ -25698,10 +25681,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25724,18 +25707,20 @@
         <v>81</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O220" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="N220" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>72</v>
       </c>
@@ -25747,7 +25732,7 @@
         <v>72</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>72</v>
+        <v>817</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>72</v>
@@ -25795,7 +25780,7 @@
         <v>92</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" hidden="true">
@@ -25817,7 +25802,7 @@
         <v>80</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>72</v>
@@ -25826,19 +25811,19 @@
         <v>81</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>322</v>
+        <v>820</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>325</v>
+        <v>823</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25851,7 +25836,7 @@
         <v>72</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>823</v>
+        <v>72</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>72</v>
@@ -25887,7 +25872,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25899,7 +25884,7 @@
         <v>92</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="222" hidden="true">
@@ -25921,29 +25906,25 @@
         <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>826</v>
+        <v>95</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>827</v>
+        <v>96</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>830</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>72</v>
       </c>
@@ -25991,7 +25972,7 @@
         <v>72</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>825</v>
+        <v>98</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>73</v>
@@ -26000,29 +25981,29 @@
         <v>80</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>334</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>72</v>
@@ -26034,15 +26015,17 @@
         <v>72</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N223" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>72</v>
@@ -26079,50 +26062,50 @@
         <v>72</v>
       </c>
       <c r="AB223" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD223" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>72</v>
@@ -26131,19 +26114,19 @@
         <v>72</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>102</v>
+        <v>828</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>103</v>
+        <v>829</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>104</v>
+        <v>830</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -26181,31 +26164,31 @@
         <v>72</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD224" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>108</v>
+        <v>831</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>92</v>
+        <v>832</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" hidden="true">
@@ -26236,7 +26219,7 @@
         <v>81</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>834</v>
@@ -26271,13 +26254,13 @@
         <v>72</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>72</v>
+        <v>837</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>72</v>
+        <v>442</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>72</v>
@@ -26295,7 +26278,7 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
@@ -26304,7 +26287,7 @@
         <v>80</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>838</v>
+        <v>92</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>93</v>
@@ -26338,7 +26321,7 @@
         <v>81</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="L226" t="s" s="2">
         <v>840</v>
@@ -26373,31 +26356,31 @@
         <v>72</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF226" t="s" s="2">
         <v>843</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>844</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
@@ -26414,10 +26397,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26440,16 +26423,16 @@
         <v>81</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="L227" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>846</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -26499,7 +26482,7 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
@@ -26516,10 +26499,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26530,7 +26513,7 @@
         <v>73</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>72</v>
@@ -26539,10 +26522,10 @@
         <v>72</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>95</v>
+        <v>850</v>
       </c>
       <c r="L228" t="s" s="2">
         <v>851</v>
@@ -26553,7 +26536,9 @@
       <c r="N228" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="O228" s="2"/>
+      <c r="O228" t="s" s="2">
+        <v>854</v>
+      </c>
       <c r="P228" t="s" s="2">
         <v>72</v>
       </c>
@@ -26601,13 +26586,13 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>92</v>
@@ -26632,7 +26617,7 @@
         <v>73</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>72</v>
@@ -26644,20 +26629,16 @@
         <v>72</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>856</v>
+        <v>95</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>857</v>
+        <v>96</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
         <v>72</v>
       </c>
@@ -26705,38 +26686,38 @@
         <v>72</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>855</v>
+        <v>98</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>72</v>
@@ -26748,15 +26729,17 @@
         <v>72</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N230" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>72</v>
@@ -26793,53 +26776,55 @@
         <v>72</v>
       </c>
       <c r="AB230" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD230" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C231" s="2"/>
+        <v>856</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>858</v>
+      </c>
       <c r="D231" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>72</v>
@@ -26848,17 +26833,15 @@
         <v>72</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>101</v>
+        <v>859</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>102</v>
+        <v>860</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>72</v>
@@ -26895,16 +26878,16 @@
         <v>72</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>108</v>
@@ -26924,13 +26907,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="C232" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C232" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>72</v>
@@ -26952,13 +26935,13 @@
         <v>72</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>865</v>
       </c>
-      <c r="L232" t="s" s="2">
+      <c r="M232" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -27026,13 +27009,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="C233" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C233" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>72</v>
@@ -27054,13 +27037,13 @@
         <v>72</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -27128,44 +27111,46 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C234" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="D234" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G234" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H234" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I234" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I234" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J234" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="L234" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
+      <c r="N234" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27213,7 +27198,7 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>108</v>
+        <v>876</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
@@ -27230,45 +27215,45 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>879</v>
+        <v>72</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27293,13 +27278,11 @@
         <v>72</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>72</v>
+        <v>882</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>72</v>
@@ -27317,19 +27300,19 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI235" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" hidden="true">
@@ -27360,19 +27343,19 @@
         <v>72</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>300</v>
+        <v>884</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>72</v>
@@ -27397,11 +27380,13 @@
         <v>72</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y236" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z236" t="s" s="2">
-        <v>888</v>
+        <v>72</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>72</v>
@@ -27450,10 +27435,10 @@
         <v>73</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>72</v>
@@ -27462,19 +27447,17 @@
         <v>72</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>890</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N237" s="2"/>
+      <c r="O237" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>72</v>
@@ -27529,21 +27512,21 @@
         <v>73</v>
       </c>
       <c r="AH237" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI237" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>93</v>
+        <v>892</v>
       </c>
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27554,7 +27537,7 @@
         <v>73</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>72</v>
@@ -27566,18 +27549,16 @@
         <v>72</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>575</v>
+        <v>95</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>896</v>
+        <v>96</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>577</v>
+        <v>97</v>
       </c>
       <c r="N238" s="2"/>
-      <c r="O238" t="s" s="2">
-        <v>897</v>
-      </c>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>72</v>
       </c>
@@ -27625,27 +27606,27 @@
         <v>72</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>895</v>
+        <v>98</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>898</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27653,10 +27634,10 @@
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>73</v>
+        <v>584</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H239" t="s" s="2">
         <v>72</v>
@@ -27668,13 +27649,13 @@
         <v>72</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -27713,50 +27694,52 @@
         <v>72</v>
       </c>
       <c r="AB239" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC239" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD239" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH239" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>894</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D240" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>584</v>
+        <v>73</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H240" t="s" s="2">
         <v>72</v>
@@ -27768,15 +27751,17 @@
         <v>72</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>101</v>
+        <v>587</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>184</v>
+        <v>588</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N240" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>72</v>
@@ -27813,16 +27798,16 @@
         <v>72</v>
       </c>
       <c r="AB240" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD240" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>108</v>
@@ -27842,26 +27827,26 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D241" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>72</v>
@@ -27870,17 +27855,15 @@
         <v>72</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N241" s="2"/>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>72</v>
@@ -27946,20 +27929,20 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>80</v>
@@ -27974,13 +27957,13 @@
         <v>72</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -28048,20 +28031,20 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G243" t="s" s="2">
         <v>80</v>
@@ -28076,13 +28059,13 @@
         <v>72</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>597</v>
+        <v>899</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -28150,14 +28133,12 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>590</v>
-      </c>
+      <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
         <v>72</v>
       </c>
@@ -28169,24 +28150,26 @@
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J244" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J244" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="K244" t="s" s="2">
-        <v>591</v>
+        <v>161</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>905</v>
+        <v>605</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N244" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>72</v>
@@ -28211,13 +28194,13 @@
         <v>72</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>72</v>
+        <v>607</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="AA244" t="s" s="2">
         <v>72</v>
@@ -28235,27 +28218,27 @@
         <v>72</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>108</v>
+        <v>609</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>92</v>
+        <v>610</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28269,7 +28252,7 @@
         <v>80</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>72</v>
@@ -28278,18 +28261,20 @@
         <v>81</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O245" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P245" t="s" s="2">
         <v>72</v>
       </c>
@@ -28313,13 +28298,13 @@
         <v>72</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>607</v>
+        <v>72</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>608</v>
+        <v>72</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>72</v>
@@ -28337,7 +28322,7 @@
         <v>72</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>73</v>
@@ -28346,7 +28331,7 @@
         <v>80</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>610</v>
+        <v>92</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>93</v>
@@ -28354,10 +28339,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28365,34 +28350,34 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I246" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I246" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="J246" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>72</v>
@@ -28417,13 +28402,13 @@
         <v>72</v>
       </c>
       <c r="X246" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>72</v>
+        <v>622</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>72</v>
+        <v>623</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>72</v>
@@ -28441,7 +28426,7 @@
         <v>72</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>73</v>
@@ -28458,10 +28443,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28478,26 +28463,24 @@
         <v>72</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>161</v>
+        <v>626</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
         <v>72</v>
       </c>
@@ -28521,13 +28504,13 @@
         <v>72</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>622</v>
+        <v>72</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>623</v>
+        <v>72</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>72</v>
@@ -28545,7 +28528,7 @@
         <v>72</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>73</v>
@@ -28562,10 +28545,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28588,16 +28571,16 @@
         <v>81</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>626</v>
+        <v>322</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>629</v>
+        <v>325</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -28647,7 +28630,7 @@
         <v>72</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>73</v>
@@ -28659,15 +28642,15 @@
         <v>92</v>
       </c>
       <c r="AJ248" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28687,21 +28670,23 @@
         <v>72</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>322</v>
+        <v>636</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>632</v>
+        <v>906</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O249" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>907</v>
+      </c>
       <c r="P249" t="s" s="2">
         <v>72</v>
       </c>
@@ -28749,7 +28734,7 @@
         <v>72</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>634</v>
+        <v>905</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>73</v>
@@ -28761,15 +28746,15 @@
         <v>92</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28780,7 +28765,7 @@
         <v>73</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>72</v>
@@ -28792,19 +28777,19 @@
         <v>72</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>636</v>
+        <v>909</v>
       </c>
       <c r="L250" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O250" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>72</v>
@@ -28853,127 +28838,23 @@
         <v>72</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" hidden="true">
-      <c r="A251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K251" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="P251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q251" s="2"/>
-      <c r="R251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="AG251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI251" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ251" t="s" s="2">
         <v>334</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ251">
+  <autoFilter ref="A1:AJ250">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28983,7 +28864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI250">
+  <conditionalFormatting sqref="A2:AI249">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-organization.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:05:12+00:00</t>
+    <t>2024-04-12T12:13:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
